--- a/use-cases/use-case-procura.xlsx
+++ b/use-cases/use-case-procura.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/Documents/3ºano/2semestre/LI4/li4-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/Documents/3ºano/2semestre/LI4/li4-project/use-cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Use Case:</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>6.2-Volta para 1</t>
+  </si>
+  <si>
+    <t>[não quer</t>
+  </si>
+  <si>
+    <t>filtros]</t>
+  </si>
+  <si>
+    <t>receita</t>
+  </si>
+  <si>
+    <t>[não existe</t>
+  </si>
+  <si>
+    <t>a receita]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[não tem </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pretendida]</t>
   </si>
 </sst>
 </file>
@@ -339,43 +360,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -387,24 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -413,6 +380,60 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J31"/>
+  <dimension ref="B2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,290 +725,367 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="44">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="C20:E20"/>
@@ -996,13 +1094,27 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
